--- a/StructureDefinition-ext-R5-ElementDefinition.slicing.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.slicing.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,7 +453,7 @@
     <t>How an element value is interpreted when discrimination is evaluated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-discriminator-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-discriminator-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -623,12 +623,6 @@
   </si>
   <si>
     <t>Extension.extension:rules.value[x]</t>
-  </si>
-  <si>
-    <t>How slices are interpreted when evaluating an instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-resource-slicing-rules-for-R4</t>
   </si>
 </sst>
 </file>
@@ -979,7 +973,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.5703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.13671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4528,13 +4522,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
